--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn4-Ptprg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn4-Ptprg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Cntn4</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.006543333333333334</v>
+        <v>0.05578733333333333</v>
       </c>
       <c r="H2">
-        <v>0.01963</v>
+        <v>0.167362</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5066432560885162</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5066432560885161</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.163501</v>
+        <v>34.90270733333333</v>
       </c>
       <c r="N2">
-        <v>108.490503</v>
+        <v>104.708122</v>
       </c>
       <c r="O2">
-        <v>0.6220417455216599</v>
+        <v>0.6914093433442696</v>
       </c>
       <c r="P2">
-        <v>0.62204174552166</v>
+        <v>0.6914093433442696</v>
       </c>
       <c r="Q2">
-        <v>0.2366298415433334</v>
+        <v>1.947128968240444</v>
       </c>
       <c r="R2">
-        <v>2.129668573890001</v>
+        <v>17.524160714164</v>
       </c>
       <c r="S2">
-        <v>0.6220417455216599</v>
+        <v>0.3502978810019636</v>
       </c>
       <c r="T2">
-        <v>0.62204174552166</v>
+        <v>0.3502978810019636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.006543333333333334</v>
+        <v>0.05578733333333333</v>
       </c>
       <c r="H3">
-        <v>0.01963</v>
+        <v>0.167362</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5066432560885162</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5066432560885161</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>28.835518</v>
       </c>
       <c r="O3">
-        <v>0.1653314848189177</v>
+        <v>0.1904068775617222</v>
       </c>
       <c r="P3">
-        <v>0.1653314848189177</v>
+        <v>0.1904068775617222</v>
       </c>
       <c r="Q3">
-        <v>0.06289346870444446</v>
+        <v>0.5362188848351112</v>
       </c>
       <c r="R3">
-        <v>0.5660412183400001</v>
+        <v>4.825969963516</v>
       </c>
       <c r="S3">
-        <v>0.1653314848189177</v>
+        <v>0.09646836042951837</v>
       </c>
       <c r="T3">
-        <v>0.1653314848189177</v>
+        <v>0.09646836042951834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.006543333333333334</v>
+        <v>0.05578733333333333</v>
       </c>
       <c r="H4">
-        <v>0.01963</v>
+        <v>0.167362</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5066432560885162</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5066432560885161</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.005881666666666666</v>
+        <v>0.01597633333333333</v>
       </c>
       <c r="N4">
-        <v>0.017645</v>
+        <v>0.047929</v>
       </c>
       <c r="O4">
-        <v>0.0001011694691813687</v>
+        <v>0.0003164850804710975</v>
       </c>
       <c r="P4">
-        <v>0.0001011694691813687</v>
+        <v>0.0003164850804710975</v>
       </c>
       <c r="Q4">
-        <v>3.848570555555556E-05</v>
+        <v>0.0008912770331111111</v>
       </c>
       <c r="R4">
-        <v>0.00034637135</v>
+        <v>0.008021493298000001</v>
       </c>
       <c r="S4">
-        <v>0.0001011694691813687</v>
+        <v>0.0001603450316733129</v>
       </c>
       <c r="T4">
-        <v>0.0001011694691813687</v>
+        <v>0.0001603450316733129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.006543333333333334</v>
+        <v>0.05578733333333333</v>
       </c>
       <c r="H5">
-        <v>0.01963</v>
+        <v>0.167362</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5066432560885162</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5066432560885161</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.21947666666667</v>
+        <v>5.873833666666667</v>
       </c>
       <c r="N5">
-        <v>36.65843</v>
+        <v>17.621501</v>
       </c>
       <c r="O5">
-        <v>0.2101849761474843</v>
+        <v>0.1163584085210734</v>
       </c>
       <c r="P5">
-        <v>0.2101849761474844</v>
+        <v>0.1163584085210734</v>
       </c>
       <c r="Q5">
-        <v>0.07995610898888889</v>
+        <v>0.3276855167068889</v>
       </c>
       <c r="R5">
-        <v>0.7196049809</v>
+        <v>2.949169650362001</v>
       </c>
       <c r="S5">
-        <v>0.2101849761474843</v>
+        <v>0.05895220296639438</v>
       </c>
       <c r="T5">
-        <v>0.2101849761474844</v>
+        <v>0.05895220296639436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -791,46 +791,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.006543333333333334</v>
+        <v>0.05578733333333333</v>
       </c>
       <c r="H6">
-        <v>0.01963</v>
+        <v>0.167362</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.5066432560885162</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5066432560885161</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1206406666666667</v>
+        <v>0.056846</v>
       </c>
       <c r="N6">
-        <v>0.361922</v>
+        <v>0.170538</v>
       </c>
       <c r="O6">
-        <v>0.002075117972516822</v>
+        <v>0.001126097616336248</v>
       </c>
       <c r="P6">
-        <v>0.002075117972516822</v>
+        <v>0.001126097616336248</v>
       </c>
       <c r="Q6">
-        <v>0.0007893920955555557</v>
+        <v>0.003171286750666667</v>
       </c>
       <c r="R6">
-        <v>0.007104528860000001</v>
+        <v>0.028541580756</v>
       </c>
       <c r="S6">
-        <v>0.002075117972516822</v>
+        <v>0.0005705297630141134</v>
       </c>
       <c r="T6">
-        <v>0.002075117972516822</v>
+        <v>0.0005705297630141133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,46 +853,418 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.006543333333333334</v>
+        <v>0.05578733333333333</v>
       </c>
       <c r="H7">
-        <v>0.01963</v>
+        <v>0.167362</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.5066432560885162</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.5066432560885161</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01932333333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.05797</v>
+      </c>
+      <c r="O7">
+        <v>0.0003827878761273869</v>
+      </c>
+      <c r="P7">
+        <v>0.0003827878761273868</v>
+      </c>
+      <c r="Q7">
+        <v>0.001077997237777778</v>
+      </c>
+      <c r="R7">
+        <v>0.009701975140000001</v>
+      </c>
+      <c r="S7">
+        <v>0.0001939368959523869</v>
+      </c>
+      <c r="T7">
+        <v>0.0001939368959523868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05432433333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.162973</v>
+      </c>
+      <c r="I8">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="J8">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.90270733333333</v>
+      </c>
+      <c r="N8">
+        <v>104.708122</v>
+      </c>
+      <c r="O8">
+        <v>0.6914093433442696</v>
+      </c>
+      <c r="P8">
+        <v>0.6914093433442696</v>
+      </c>
+      <c r="Q8">
+        <v>1.896066307411778</v>
+      </c>
+      <c r="R8">
+        <v>17.064596766706</v>
+      </c>
+      <c r="S8">
+        <v>0.341111462342306</v>
+      </c>
+      <c r="T8">
+        <v>0.341111462342306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05432433333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.162973</v>
+      </c>
+      <c r="I9">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="J9">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.611839333333334</v>
+      </c>
+      <c r="N9">
+        <v>28.835518</v>
+      </c>
+      <c r="O9">
+        <v>0.1904068775617222</v>
+      </c>
+      <c r="P9">
+        <v>0.1904068775617222</v>
+      </c>
+      <c r="Q9">
+        <v>0.5221567638904445</v>
+      </c>
+      <c r="R9">
+        <v>4.699410875014</v>
+      </c>
+      <c r="S9">
+        <v>0.09393851713220382</v>
+      </c>
+      <c r="T9">
+        <v>0.0939385171322038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05432433333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.162973</v>
+      </c>
+      <c r="I10">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="J10">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
-        <v>0.01543566666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.046307</v>
-      </c>
-      <c r="O7">
-        <v>0.0002655060702398209</v>
-      </c>
-      <c r="P7">
-        <v>0.0002655060702398209</v>
-      </c>
-      <c r="Q7">
-        <v>0.0001010007122222222</v>
-      </c>
-      <c r="R7">
-        <v>0.0009090064100000001</v>
-      </c>
-      <c r="S7">
-        <v>0.0002655060702398209</v>
-      </c>
-      <c r="T7">
-        <v>0.0002655060702398209</v>
+      <c r="M10">
+        <v>0.01597633333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.047929</v>
+      </c>
+      <c r="O10">
+        <v>0.0003164850804710975</v>
+      </c>
+      <c r="P10">
+        <v>0.0003164850804710975</v>
+      </c>
+      <c r="Q10">
+        <v>0.0008679036574444444</v>
+      </c>
+      <c r="R10">
+        <v>0.007811132917</v>
+      </c>
+      <c r="S10">
+        <v>0.0001561400487977846</v>
+      </c>
+      <c r="T10">
+        <v>0.0001561400487977846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05432433333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.162973</v>
+      </c>
+      <c r="I11">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="J11">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.873833666666667</v>
+      </c>
+      <c r="N11">
+        <v>17.621501</v>
+      </c>
+      <c r="O11">
+        <v>0.1163584085210734</v>
+      </c>
+      <c r="P11">
+        <v>0.1163584085210734</v>
+      </c>
+      <c r="Q11">
+        <v>0.3190920980525556</v>
+      </c>
+      <c r="R11">
+        <v>2.871828882473</v>
+      </c>
+      <c r="S11">
+        <v>0.05740620555467902</v>
+      </c>
+      <c r="T11">
+        <v>0.05740620555467901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05432433333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.162973</v>
+      </c>
+      <c r="I12">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="J12">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.056846</v>
+      </c>
+      <c r="N12">
+        <v>0.170538</v>
+      </c>
+      <c r="O12">
+        <v>0.001126097616336248</v>
+      </c>
+      <c r="P12">
+        <v>0.001126097616336248</v>
+      </c>
+      <c r="Q12">
+        <v>0.003088121052666667</v>
+      </c>
+      <c r="R12">
+        <v>0.027793089474</v>
+      </c>
+      <c r="S12">
+        <v>0.0005555678533221347</v>
+      </c>
+      <c r="T12">
+        <v>0.0005555678533221346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05432433333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.162973</v>
+      </c>
+      <c r="I13">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="J13">
+        <v>0.4933567439114838</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01932333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.05797</v>
+      </c>
+      <c r="O13">
+        <v>0.0003827878761273869</v>
+      </c>
+      <c r="P13">
+        <v>0.0003827878761273868</v>
+      </c>
+      <c r="Q13">
+        <v>0.001049727201111111</v>
+      </c>
+      <c r="R13">
+        <v>0.00944754481</v>
+      </c>
+      <c r="S13">
+        <v>0.000188850980175</v>
+      </c>
+      <c r="T13">
+        <v>0.000188850980175</v>
       </c>
     </row>
   </sheetData>
